--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\WURI - UGP\Mosip\v1.2\Master-data_Mosip1.2._FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\GUINEA_Pilot\GUINEA_Pilot_Mosip-Data_WuriGuinea-1.2.0.1-B1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412E2D40-57C4-45A6-9E4C-A0001AE99DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B533ADFA-8269-4F70-845D-87E18D781610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$4</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -74,9 +74,6 @@
     <t>superadmin</t>
   </si>
   <si>
-    <t>now()</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
@@ -84,12 +81,6 @@
   </si>
   <si>
     <t>preferredLang</t>
-  </si>
-  <si>
-    <t>{"value":"français","code":"fra"}</t>
-  </si>
-  <si>
-    <t>Langue préférée de l'utilisateur</t>
   </si>
   <si>
     <t>fra</t>
@@ -108,27 +99,39 @@
 		"value": "Feminin"
 	}</t>
   </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>Langue prÃ©fÃ©rÃ©e de l'utilisateur</t>
+  </si>
+  <si>
+    <t>{"value":"franÃ§ais","code":"fra"}</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -147,34 +150,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.54296875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -474,123 +459,168 @@
     <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>10319</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3" t="b">
-        <f>TRUE()</f>
+      <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
+      <c r="I2" s="2">
+        <v>45079.57784244213</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10089</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="b">
-        <f>TRUE()</f>
+        <v>14</v>
+      </c>
+      <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
-        <v>11</v>
+      <c r="I3" s="2">
+        <v>45079.57784244213</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10090</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="b">
-        <f>TRUE()</f>
+        <v>14</v>
+      </c>
+      <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
-        <v>11</v>
+      <c r="I4" s="2">
+        <v>45079.57784244213</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
